--- a/market/project1/100.Project/01.semiProject/file/seoul_starbucks_list.xlsx
+++ b/market/project1/100.Project/01.semiProject/file/seoul_starbucks_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G612"/>
+  <dimension ref="A1:G611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5764,7 +5764,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6490,7 +6490,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6622,7 +6622,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6886,7 +6886,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7249,7 +7249,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -7348,7 +7348,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -7546,7 +7546,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -7744,7 +7744,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -7843,7 +7843,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -8074,7 +8074,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -8107,7 +8107,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalWT</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -8206,7 +8206,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -8239,7 +8239,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -8305,7 +8305,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8404,7 +8404,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -8437,7 +8437,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -8800,7 +8800,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -8833,7 +8833,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -8866,7 +8866,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -9262,7 +9262,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -9295,7 +9295,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -9427,7 +9427,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -9790,7 +9790,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -9856,7 +9856,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9889,7 +9889,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -9922,7 +9922,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -10318,7 +10318,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -10417,7 +10417,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -10450,7 +10450,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -10714,7 +10714,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -10747,7 +10747,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -10879,7 +10879,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -10912,7 +10912,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -10978,7 +10978,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -11044,7 +11044,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -11077,7 +11077,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -11110,7 +11110,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -11374,7 +11374,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -11407,7 +11407,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -11473,7 +11473,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -11506,7 +11506,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -11539,7 +11539,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -11671,7 +11671,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -11770,7 +11770,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -11803,7 +11803,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -11869,7 +11869,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -11902,7 +11902,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -11935,7 +11935,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -12034,7 +12034,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -12067,7 +12067,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -12100,7 +12100,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -12133,7 +12133,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -12166,7 +12166,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -12265,7 +12265,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -12298,7 +12298,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -12331,7 +12331,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -12463,7 +12463,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -12529,7 +12529,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -12562,7 +12562,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -12595,7 +12595,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -12661,7 +12661,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -12793,7 +12793,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -12859,7 +12859,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -12892,7 +12892,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -12958,7 +12958,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -12991,7 +12991,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -13024,7 +13024,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -13057,7 +13057,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -13090,7 +13090,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -13156,7 +13156,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -13189,7 +13189,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -13222,7 +13222,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -13321,7 +13321,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -13387,7 +13387,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -13486,7 +13486,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -13519,7 +13519,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -13552,7 +13552,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -13585,7 +13585,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -13618,7 +13618,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -13684,7 +13684,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -13750,7 +13750,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -13849,7 +13849,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -13882,7 +13882,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -13915,7 +13915,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -13981,7 +13981,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -14014,7 +14014,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -14080,7 +14080,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -14113,7 +14113,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -14146,7 +14146,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -14245,7 +14245,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -14278,7 +14278,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -14410,7 +14410,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -14443,7 +14443,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -14476,7 +14476,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -14509,7 +14509,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -14542,7 +14542,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -14575,7 +14575,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -14608,7 +14608,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -14674,7 +14674,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -14707,7 +14707,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -14740,7 +14740,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -14773,7 +14773,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -14839,7 +14839,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -14905,7 +14905,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -14971,7 +14971,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -15004,7 +15004,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -15037,7 +15037,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -15136,7 +15136,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -15169,7 +15169,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -15202,7 +15202,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalWT</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -15235,7 +15235,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -15268,7 +15268,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -15301,7 +15301,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -15334,7 +15334,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -15367,7 +15367,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -15433,7 +15433,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -15466,7 +15466,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -15499,7 +15499,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -15532,7 +15532,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -15565,7 +15565,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -15598,7 +15598,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -15664,7 +15664,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -15697,7 +15697,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -15730,7 +15730,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -15829,7 +15829,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -15862,7 +15862,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -15884,23 +15884,23 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>동묘앞역</t>
+          <t>숭례문북창</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>37.5727</v>
+        <v>37.561725</v>
       </c>
       <c r="C469" t="n">
-        <v>127.016072</v>
+        <v>126.976838</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>서울특별시 종로구 종로 344 (숭인동, 대우디오빌) 101호 일부, 201호 일부</t>
+          <t>서울특별시 중구 세종대로12길 12 (남대문로4가)</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -15910,30 +15910,30 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>숭례문북창</t>
+          <t>을지로4가역</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>37.561725</v>
+        <v>37.566682</v>
       </c>
       <c r="C470" t="n">
-        <v>126.976838</v>
+        <v>126.997285</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로12길 12 (남대문로4가)</t>
+          <t>서울특별시 중구 을지로 170 (을지로4가)</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -15950,23 +15950,23 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>을지로4가역</t>
+          <t>동대문두타</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>37.566682</v>
+        <v>37.56892512604548</v>
       </c>
       <c r="C471" t="n">
-        <v>126.997285</v>
+        <v>127.008783834846</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>서울특별시 중구 을지로 170 (을지로4가)</t>
+          <t>서울특별시 중구 장충단로 275 (을지로6가)</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -15983,23 +15983,23 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>동대문두타</t>
+          <t>대한상공회의소R</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>37.56892512604548</v>
+        <v>37.560938</v>
       </c>
       <c r="C472" t="n">
-        <v>127.008783834846</v>
+        <v>126.973702</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>서울특별시 중구 장충단로 275 (을지로6가)</t>
+          <t>서울특별시 중구 세종대로 39 (남대문로4가) 1층</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -16016,23 +16016,23 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>대한상공회의소R</t>
+          <t>국립중앙의료원</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>37.560938</v>
+        <v>37.566516</v>
       </c>
       <c r="C473" t="n">
-        <v>126.973702</v>
+        <v>127.0062376</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로 39 (남대문로4가) 1층</t>
+          <t>서울특별시 중구 을지로 251 (을지로6가)</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -16049,23 +16049,23 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>국립중앙의료원</t>
+          <t>동국대</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>37.566516</v>
+        <v>37.561542</v>
       </c>
       <c r="C474" t="n">
-        <v>127.0062376</v>
+        <v>126.998437</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>서울특별시 중구 을지로 251 (을지로6가)</t>
+          <t>서울특별시 중구 서애로 1길 11</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -16082,23 +16082,23 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>동국대</t>
+          <t>신세계본점5F</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>37.561542</v>
+        <v>37.560951</v>
       </c>
       <c r="C475" t="n">
-        <v>126.998437</v>
+        <v>126.981134</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>서울특별시 중구 서애로 1길 11</t>
+          <t>서울특별시 중구 소공로 63 (충무로1가)</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -16115,23 +16115,23 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>신세계본점5F</t>
+          <t>동대문공원</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>37.560951</v>
+        <v>37.565133</v>
       </c>
       <c r="C476" t="n">
-        <v>126.981134</v>
+        <v>127.007191</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>서울특별시 중구 소공로 63 (충무로1가)</t>
+          <t>서울특별시 중구 장충단로 229 (광희동1가)</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -16148,23 +16148,23 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>동대문공원</t>
+          <t>을지로국제빌딩</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>37.565133</v>
+        <v>37.566952</v>
       </c>
       <c r="C477" t="n">
-        <v>127.007191</v>
+        <v>126.982219</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>서울특별시 중구 장충단로 229 (광희동1가)</t>
+          <t>서울특별시 중구 남대문로 109 (다동)</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -16181,23 +16181,23 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>을지로국제빌딩</t>
+          <t>동대입구역</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>37.566952</v>
+        <v>37.559593</v>
       </c>
       <c r="C478" t="n">
-        <v>126.982219</v>
+        <v>127.006142</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>서울특별시 중구 남대문로 109 (다동)</t>
+          <t>서울특별시 중구 장충단로 166 (장충동1가)</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -16214,23 +16214,23 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>동대입구역</t>
+          <t>신당역사거리</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>37.559593</v>
+        <v>37.565807</v>
       </c>
       <c r="C479" t="n">
-        <v>127.006142</v>
+        <v>127.01643</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>서울특별시 중구 장충단로 166 (장충동1가)</t>
+          <t>서울특별시 중구 다산로 258 (흥인동)</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -16247,23 +16247,23 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>신당역사거리</t>
+          <t>연세세브란스</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>37.565807</v>
+        <v>37.557207</v>
       </c>
       <c r="C480" t="n">
-        <v>127.01643</v>
+        <v>126.97354</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>서울특별시 중구 다산로 258 (흥인동)</t>
+          <t>서울특별시 중구 통일로 10 (남대문로5가)</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -16280,23 +16280,23 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>연세세브란스</t>
+          <t>회현역</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>37.557207</v>
+        <v>37.5589809</v>
       </c>
       <c r="C481" t="n">
-        <v>126.97354</v>
+        <v>126.9807467</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>서울특별시 중구 통일로 10 (남대문로5가)</t>
+          <t>서울특별시 중구 퇴계로 72 (회현동) 리더스뷰남산</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -16313,23 +16313,23 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>회현역</t>
+          <t>을지로경기빌딩</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>37.5589809</v>
+        <v>37.567172</v>
       </c>
       <c r="C482" t="n">
-        <v>126.9807467</v>
+        <v>126.983156</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 72 (회현동) 리더스뷰남산</t>
+          <t>서울특별시 중구 남대문로10길 9 (삼각동) 경기빌딩</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -16346,23 +16346,23 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>을지로경기빌딩</t>
+          <t>을지로2가</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>37.567172</v>
+        <v>37.566347</v>
       </c>
       <c r="C483" t="n">
-        <v>126.983156</v>
+        <v>126.988066</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>서울특별시 중구 남대문로10길 9 (삼각동) 경기빌딩</t>
+          <t>서울특별시 중구 삼일대로 358 (을지로2가)</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -16379,23 +16379,23 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>을지로2가</t>
+          <t>신세계본점6F</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>37.566347</v>
+        <v>37.560381</v>
       </c>
       <c r="C484" t="n">
-        <v>126.988066</v>
+        <v>126.980758</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>서울특별시 중구 삼일대로 358 (을지로2가)</t>
+          <t>서울특별시 중구 퇴계로 77 (충무로1가)</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -16412,23 +16412,23 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>신세계본점6F</t>
+          <t>서울중앙우체국</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>37.560381</v>
+        <v>37.561678</v>
       </c>
       <c r="C485" t="n">
-        <v>126.980758</v>
+        <v>126.982117</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 77 (충무로1가)</t>
+          <t>서울특별시 중구 소공로 70 (충무로 1가) 서울 중앙 우체국</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -16445,23 +16445,23 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>서울중앙우체국</t>
+          <t>한국프레스센터</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>37.561678</v>
+        <v>37.567381</v>
       </c>
       <c r="C486" t="n">
-        <v>126.982117</v>
+        <v>126.977859</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>서울특별시 중구 소공로 70 (충무로 1가) 서울 중앙 우체국</t>
+          <t>서울특별시 중구 세종대로 124 (태평로1가)</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
@@ -16478,23 +16478,23 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>한국프레스센터</t>
+          <t>명동중앙로</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>37.567381</v>
+        <v>37.5637485</v>
       </c>
       <c r="C487" t="n">
-        <v>126.977859</v>
+        <v>126.9857723</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로 124 (태평로1가)</t>
+          <t>서울특별시 중구 명동길 60 (명동 2가)</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -16511,23 +16511,23 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>명동중앙로</t>
+          <t>약수역</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>37.5637485</v>
+        <v>37.555437</v>
       </c>
       <c r="C488" t="n">
-        <v>126.9857723</v>
+        <v>127.0107253</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>서울특별시 중구 명동길 60 (명동 2가)</t>
+          <t>서울특별시 중구 다산로 129 (신당동)</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -16544,23 +16544,23 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>약수역</t>
+          <t>중구저동</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>37.555437</v>
+        <v>37.5643686</v>
       </c>
       <c r="C489" t="n">
-        <v>127.0107253</v>
+        <v>126.9903382</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>서울특별시 중구 다산로 129 (신당동)</t>
+          <t>서울특별시 중구 수표로 34 (저동2가)</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -16577,23 +16577,23 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>중구저동</t>
+          <t>명동길</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>37.5643686</v>
+        <v>37.5620695</v>
       </c>
       <c r="C490" t="n">
-        <v>126.9903382</v>
+        <v>126.9858669</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>서울특별시 중구 수표로 34 (저동2가)</t>
+          <t>서울특별시 중구 명동10길 41</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -16610,23 +16610,23 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>명동길</t>
+          <t>서소문로</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>37.5620695</v>
+        <v>37.563006</v>
       </c>
       <c r="C491" t="n">
-        <v>126.9858669</v>
+        <v>126.974546</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>서울특별시 중구 명동10길 41</t>
+          <t>서울특별시 중구 서소문로 120 (서소문동) 대한빌딩</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
@@ -16643,23 +16643,23 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>서소문로</t>
+          <t>신당역</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>37.563006</v>
+        <v>37.565522</v>
       </c>
       <c r="C492" t="n">
-        <v>126.974546</v>
+        <v>127.014554</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>서울특별시 중구 서소문로 120 (서소문동) 대한빌딩</t>
+          <t>서울특별시 중구 퇴계로 385, 1층 (흥인동)</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
@@ -16676,23 +16676,23 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>신당역</t>
+          <t>명동메트로</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>37.565522</v>
+        <v>37.565118</v>
       </c>
       <c r="C493" t="n">
-        <v>127.014554</v>
+        <v>126.983681</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 385, 1층 (흥인동)</t>
+          <t>서울특별시 중구 명동9가길 14 (을지로1가) 메트로호텔</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
@@ -16709,23 +16709,23 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>명동메트로</t>
+          <t>숭례문</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>37.565118</v>
+        <v>37.55874473</v>
       </c>
       <c r="C494" t="n">
-        <v>126.983681</v>
+        <v>126.9730952</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>서울특별시 중구 명동9가길 14 (을지로1가) 메트로호텔</t>
+          <t>서울특별시 중구 세종대로 17, 와이즈타워 1층 (남대문로5가)</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -16742,23 +16742,23 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>숭례문</t>
+          <t>순화동더샵</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>37.55874473</v>
+        <v>37.560072</v>
       </c>
       <c r="C495" t="n">
-        <v>126.9730952</v>
+        <v>126.971931</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로 17, 와이즈타워 1층 (남대문로5가)</t>
+          <t>서울특별시 중구 칠패로 27, 1층 (순화동)</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
@@ -16775,23 +16775,23 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>순화동더샵</t>
+          <t>대한극장</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>37.560072</v>
+        <v>37.56105065</v>
       </c>
       <c r="C496" t="n">
-        <v>126.971931</v>
+        <v>126.9952735</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>서울특별시 중구 칠패로 27, 1층 (순화동)</t>
+          <t>서울특별시 중구 퇴계로 212 (필동2가) 1,2층</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
@@ -16808,23 +16808,23 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>대한극장</t>
+          <t>환구단</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>37.56105065</v>
+        <v>37.564448</v>
       </c>
       <c r="C497" t="n">
-        <v>126.9952735</v>
+        <v>126.979157</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 212 (필동2가) 1,2층</t>
+          <t>서울특별시 중구 소공로 112 (소공동)</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
@@ -16841,23 +16841,23 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>환구단</t>
+          <t>무교동</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>37.564448</v>
+        <v>37.56781712</v>
       </c>
       <c r="C498" t="n">
-        <v>126.979157</v>
+        <v>126.978738</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>서울특별시 중구 소공로 112 (소공동)</t>
+          <t>서울특별시 중구 무교로 21 (무교동) 코오롱빌딩 1층</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
@@ -16874,23 +16874,23 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>무교동</t>
+          <t>문화일보</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>37.56781712</v>
+        <v>37.56712291</v>
       </c>
       <c r="C499" t="n">
-        <v>126.978738</v>
+        <v>126.9686642</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>서울특별시 중구 무교로 21 (무교동) 코오롱빌딩 1층</t>
+          <t>서울특별시 중구 새문안로 22 (충정로1가) 문화일보</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
@@ -16907,23 +16907,23 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>문화일보</t>
+          <t>태평로</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>37.56712291</v>
+        <v>37.56248285</v>
       </c>
       <c r="C500" t="n">
-        <v>126.9686642</v>
+        <v>126.9767928</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>서울특별시 중구 새문안로 22 (충정로1가) 문화일보</t>
+          <t>서울특별시 중구 세종대로 72, 대영빌딩 1층 (태평로2가)</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
@@ -16940,23 +16940,23 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>태평로</t>
+          <t>퍼시픽타워</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>37.56248285</v>
+        <v>37.56132157</v>
       </c>
       <c r="C501" t="n">
-        <v>126.9767928</v>
+        <v>126.9730264</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로 72, 대영빌딩 1층 (태평로2가)</t>
+          <t>서울특별시 중구 세종대로9길 41, 퍼시픽타워 1층 (서소문동)</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -16973,23 +16973,23 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>퍼시픽타워</t>
+          <t>남산단암</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>37.56132157</v>
+        <v>37.55853622</v>
       </c>
       <c r="C502" t="n">
-        <v>126.9730264</v>
+        <v>126.9754585</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로9길 41, 퍼시픽타워 1층 (서소문동)</t>
+          <t>서울특별시 중구 소월로 10, 단암빌딩 (남대문로5가)</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -17006,23 +17006,23 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>남산단암</t>
+          <t>황학캐슬</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>37.55853622</v>
+        <v>37.57124</v>
       </c>
       <c r="C503" t="n">
-        <v>126.9754585</v>
+        <v>127.022905</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>서울특별시 중구 소월로 10, 단암빌딩 (남대문로5가)</t>
+          <t>서울특별시 중구 청계천로 400 (황학동) 롯데캐슬베네치아</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
@@ -17039,23 +17039,23 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>황학캐슬</t>
+          <t>을지로삼화타워</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>37.57124</v>
+        <v>37.566902</v>
       </c>
       <c r="C504" t="n">
-        <v>127.022905</v>
+        <v>126.984707</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>서울특별시 중구 청계천로 400 (황학동) 롯데캐슬베네치아</t>
+          <t>서울특별시 중구 을지로5길 16 (을지로2가) 1층</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
@@ -17072,23 +17072,23 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>을지로삼화타워</t>
+          <t>소공로</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>37.566902</v>
+        <v>37.5637273</v>
       </c>
       <c r="C505" t="n">
-        <v>126.984707</v>
+        <v>126.9807681</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>서울특별시 중구 을지로5길 16 (을지로2가) 1층</t>
+          <t>서울특별시 중구 남대문로7길 19, 삼영빌딩 1층 일부 (소공동)</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -17105,23 +17105,23 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>소공로</t>
+          <t>을지로한국빌딩</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>37.5637273</v>
+        <v>37.565722</v>
       </c>
       <c r="C506" t="n">
-        <v>126.9807681</v>
+        <v>126.98329</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>서울특별시 중구 남대문로7길 19, 삼영빌딩 1층 일부 (소공동)</t>
+          <t>서울특별시 중구 을지로 50, 1층 (을지로 2가)</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
@@ -17138,23 +17138,23 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>을지로한국빌딩</t>
+          <t>시청</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>37.565722</v>
+        <v>37.56629</v>
       </c>
       <c r="C507" t="n">
-        <v>126.98329</v>
+        <v>126.979808</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>서울특별시 중구 을지로 50, 1층 (을지로 2가)</t>
+          <t>서울특별시 중구 을지로 19, 삼성화재삼성빌딩 1층 (을지로1가)</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
@@ -17171,23 +17171,23 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>시청</t>
+          <t>명동역</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>37.56629</v>
+        <v>37.56102</v>
       </c>
       <c r="C508" t="n">
-        <v>126.979808</v>
+        <v>126.98312</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>서울특별시 중구 을지로 19, 삼성화재삼성빌딩 1층 (을지로1가)</t>
+          <t>서울특별시 중구 퇴계로 101, 건물 전체 (충무로 1가)</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -17204,23 +17204,23 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>명동역</t>
+          <t>명동입구</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>37.56102</v>
+        <v>37.563319</v>
       </c>
       <c r="C509" t="n">
-        <v>126.98312</v>
+        <v>126.982242</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 101, 건물 전체 (충무로 1가)</t>
+          <t>서울특별시 중구 남대문로 68-1 (명동2가)</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -17237,23 +17237,23 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>명동입구</t>
+          <t>충무로</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>37.563319</v>
+        <v>37.5614959808102</v>
       </c>
       <c r="C510" t="n">
-        <v>126.982242</v>
+        <v>126.992823097196</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>서울특별시 중구 남대문로 68-1 (명동2가)</t>
+          <t>서울특별시 중구 충무로 3 (필동1가)</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -17270,23 +17270,23 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>충무로</t>
+          <t>이마트타워</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>37.5614959808102</v>
+        <v>37.5607434636967</v>
       </c>
       <c r="C511" t="n">
-        <v>126.992823097196</v>
+        <v>126.972528391958</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>서울특별시 중구 충무로 3 (필동1가)</t>
+          <t>서울특별시 중구 세종대로7길 37 (순화동) 1층</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -17303,23 +17303,23 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>이마트타워</t>
+          <t>동호로</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>37.5607434636967</v>
+        <v>37.553478403261</v>
       </c>
       <c r="C512" t="n">
-        <v>126.972528391958</v>
+        <v>127.011305155237</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로7길 37 (순화동) 1층</t>
+          <t>서울특별시 중구 동호로 171 (신당동)</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -17336,23 +17336,23 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>동호로</t>
+          <t>무교로</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>37.553478403261</v>
+        <v>37.567399</v>
       </c>
       <c r="C513" t="n">
-        <v>127.011305155237</v>
+        <v>126.9789</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>서울특별시 중구 동호로 171 (신당동)</t>
+          <t>서울특별시 중구 무교로 15 (무교동)</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
@@ -17369,23 +17369,23 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>무교로</t>
+          <t>청계크리스탈스퀘어</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>37.567399</v>
+        <v>37.5679</v>
       </c>
       <c r="C514" t="n">
-        <v>126.9789</v>
+        <v>126.98933</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>서울특별시 중구 무교로 15 (무교동)</t>
+          <t>서울특별시 중구 청계천로 106 (수표동)</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
@@ -17402,23 +17402,23 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>청계크리스탈스퀘어</t>
+          <t>숭례문SG타워</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>37.5679</v>
+        <v>37.5581293</v>
       </c>
       <c r="C515" t="n">
-        <v>126.98933</v>
+        <v>126.9742637</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>서울특별시 중구 청계천로 106 (수표동)</t>
+          <t>서울특별시 중구 세종대로 14 (남대문로5가)</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
@@ -17435,23 +17435,23 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>숭례문SG타워</t>
+          <t>세종대로</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>37.5581293</v>
+        <v>37.568678</v>
       </c>
       <c r="C516" t="n">
-        <v>126.9742637</v>
+        <v>126.976493</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로 14 (남대문로5가)</t>
+          <t>서울특별시 중구 세종대로 135-5 (태평로1가)</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
@@ -17468,23 +17468,23 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>세종대로</t>
+          <t>동대문디자인플라자</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>37.568678</v>
+        <v>37.56743</v>
       </c>
       <c r="C517" t="n">
-        <v>126.976493</v>
+        <v>127.009758</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>서울특별시 중구 세종대로 135-5 (태평로1가)</t>
+          <t>서울특별시 중구 을지로 281 (을지로7가) 디자인장터</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
@@ -17501,23 +17501,23 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>동대문디자인플라자</t>
+          <t>별다방</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>37.56743</v>
+        <v>37.5602013</v>
       </c>
       <c r="C518" t="n">
-        <v>127.009758</v>
+        <v>126.9829327</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>서울특별시 중구 을지로 281 (을지로7가) 디자인장터</t>
+          <t>서울특별시 중구 퇴계로 100 (회현동2가)</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
@@ -17534,23 +17534,23 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>별다방</t>
+          <t>포포인츠명동</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>37.5602013</v>
+        <v>37.5657211</v>
       </c>
       <c r="C519" t="n">
-        <v>126.9829327</v>
+        <v>126.9893426</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 100 (회현동2가)</t>
+          <t>서울특별시 중구 삼일대로10길 36 (저동2가)</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
@@ -17567,23 +17567,23 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>포포인츠명동</t>
+          <t>명동남산</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>37.5657211</v>
+        <v>37.560809</v>
       </c>
       <c r="C520" t="n">
-        <v>126.9893426</v>
+        <v>126.986397</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>서울특별시 중구 삼일대로10길 36 (저동2가)</t>
+          <t>서울특별시 중구 퇴계로 132 (남산동3가)</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -17600,23 +17600,23 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>명동남산</t>
+          <t>대우재단빌딩</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>37.560809</v>
+        <v>37.556781</v>
       </c>
       <c r="C521" t="n">
-        <v>126.986397</v>
+        <v>126.975081</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 132 (남산동3가)</t>
+          <t>서울특별시 중구 퇴계로 18 (남대문로5가)</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
@@ -17633,23 +17633,23 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>대우재단빌딩</t>
+          <t>명일역</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>37.556781</v>
+        <v>37.55258</v>
       </c>
       <c r="C522" t="n">
-        <v>126.975081</v>
+        <v>127.143799</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>서울특별시 중구 퇴계로 18 (남대문로5가)</t>
+          <t>서울특별시 강동구 양재대로 1647 (명일동)</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
@@ -17659,30 +17659,30 @@
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>강동구</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>명일역</t>
+          <t>강동구청DT</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>37.55258</v>
+        <v>37.529437</v>
       </c>
       <c r="C523" t="n">
-        <v>127.143799</v>
+        <v>127.123835</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 양재대로 1647 (명일동)</t>
+          <t>서울특별시 강동구 성내로 32 (성내동)</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
@@ -17699,23 +17699,23 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>강동구청DT</t>
+          <t>강동암사DT</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>37.529437</v>
+        <v>37.555054</v>
       </c>
       <c r="C524" t="n">
-        <v>127.123835</v>
+        <v>127.130065</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 성내로 32 (성내동)</t>
+          <t>서울특별시 강동구 고덕로 43 (암사동)</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
@@ -17732,23 +17732,23 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>강동암사DT</t>
+          <t>굽은다리역</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>37.555054</v>
+        <v>37.545403</v>
       </c>
       <c r="C525" t="n">
-        <v>127.130065</v>
+        <v>127.143101</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 고덕로 43 (암사동)</t>
+          <t>서울특별시 강동구 양재대로 1568 (명일동, 원일타워)</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
@@ -17765,23 +17765,23 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>굽은다리역</t>
+          <t>강동역</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>37.545403</v>
+        <v>37.536047</v>
       </c>
       <c r="C526" t="n">
-        <v>127.143101</v>
+        <v>127.133086</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 양재대로 1568 (명일동, 원일타워)</t>
+          <t>서울특별시 강동구 천호대로 1089 (천호동, 강동 헤르셔)</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
@@ -17798,23 +17798,23 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>강동역</t>
+          <t>둔촌동</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>37.536047</v>
+        <v>37.522724</v>
       </c>
       <c r="C527" t="n">
-        <v>127.133086</v>
+        <v>127.133943</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 천호대로 1089 (천호동, 강동 헤르셔)</t>
+          <t>서울특별시 강동구 양재대로 1303 (성내동) 평원빌딩</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
@@ -17831,23 +17831,23 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>둔촌동</t>
+          <t>천호로데오</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>37.522724</v>
+        <v>37.5378069</v>
       </c>
       <c r="C528" t="n">
-        <v>127.133943</v>
+        <v>127.1273094000001</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 양재대로 1303 (성내동) 평원빌딩</t>
+          <t>서울특별시 강동구 천호대로 1037 (천호동)</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -17864,23 +17864,23 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>천호로데오</t>
+          <t>천호이마트</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>37.5378069</v>
+        <v>37.538933</v>
       </c>
       <c r="C529" t="n">
-        <v>127.1273094000001</v>
+        <v>127.125214</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 천호대로 1037 (천호동)</t>
+          <t>서울특별시 강동구 천호대로 1015-14 (천호동) 이마트별관</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -17897,23 +17897,23 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>천호이마트</t>
+          <t>길동역</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>37.538933</v>
+        <v>37.5387433</v>
       </c>
       <c r="C530" t="n">
-        <v>127.125214</v>
+        <v>127.1399879</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 천호대로 1015-14 (천호동) 이마트별관</t>
+          <t>서울특별시 강동구 양재대로 1487 (길동)</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
@@ -17930,23 +17930,23 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>길동역</t>
+          <t>상일동</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>37.5387433</v>
+        <v>37.5507989598659</v>
       </c>
       <c r="C531" t="n">
-        <v>127.1399879</v>
+        <v>127.174104292142</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 양재대로 1487 (길동)</t>
+          <t>서울특별시 강동구 상일로10길 36, 1~2층 (상일동)</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
@@ -17963,23 +17963,23 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>상일동</t>
+          <t>천호역</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>37.5507989598659</v>
+        <v>37.53795191</v>
       </c>
       <c r="C532" t="n">
-        <v>127.174104292142</v>
+        <v>127.1245793</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 상일로10길 36, 1~2층 (상일동)</t>
+          <t>서울특별시 강동구 천호대로 1012, 태승빌딩 (성내동)</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
@@ -17996,23 +17996,23 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>천호역</t>
+          <t>명일이마트</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>37.53795191</v>
+        <v>37.553991</v>
       </c>
       <c r="C533" t="n">
-        <v>127.1245793</v>
+        <v>127.155984</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 천호대로 1012, 태승빌딩 (성내동)</t>
+          <t>서울특별시 강동구 동남로75길 5 (명일동) 명일이마트별관주차장</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
@@ -18029,23 +18029,23 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>명일이마트</t>
+          <t>상일동역</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>37.553991</v>
+        <v>37.55754181615496</v>
       </c>
       <c r="C534" t="n">
-        <v>127.155984</v>
+        <v>127.1707267247472</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 동남로75길 5 (명일동) 명일이마트별관주차장</t>
+          <t>서울특별시 강동구 고덕로 399 (고덕동, 고덕센트럴푸르지오)</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
@@ -18062,23 +18062,23 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>상일동역</t>
+          <t>천호사거리</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>37.55754181615496</v>
+        <v>37.539702</v>
       </c>
       <c r="C535" t="n">
-        <v>127.1707267247472</v>
+        <v>127.123542</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 고덕로 399 (고덕동, 고덕센트럴푸르지오)</t>
+          <t>서울특별시 강동구 올림픽로 651 (천호동)</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
@@ -18095,23 +18095,23 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>천호사거리</t>
+          <t>강일역</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>37.539702</v>
+        <v>37.55747468801038</v>
       </c>
       <c r="C536" t="n">
-        <v>127.123542</v>
+        <v>127.1735107083872</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 올림픽로 651 (천호동)</t>
+          <t>서울특별시 강동구 고덕로 429 (강일동), 1층</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
@@ -18128,23 +18128,23 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>강일역</t>
+          <t>올림픽공원북2문</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>37.55747468801038</v>
+        <v>37.5241832</v>
       </c>
       <c r="C537" t="n">
-        <v>127.1735107083872</v>
+        <v>127.1286775</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 고덕로 429 (강일동), 1층</t>
+          <t>서울특별시 강동구 강동대로 199 (성내동)</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
@@ -18161,23 +18161,23 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>올림픽공원북2문</t>
+          <t>천호대로길동</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>37.5241832</v>
+        <v>37.534651</v>
       </c>
       <c r="C538" t="n">
-        <v>127.1286775</v>
+        <v>127.13721</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 강동대로 199 (성내동)</t>
+          <t>서울특별시 강동구 천호대로 1131 거산 유팰리스</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
@@ -18194,23 +18194,23 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>천호대로길동</t>
+          <t>신도림</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>37.534651</v>
+        <v>37.505517</v>
       </c>
       <c r="C539" t="n">
-        <v>127.13721</v>
+        <v>126.883953</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>서울특별시 강동구 천호대로 1131 거산 유팰리스</t>
+          <t>서울특별시 구로구 경인로 610 (신도림동)</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
@@ -18220,30 +18220,30 @@
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>강동구</t>
+          <t>구로구</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>신도림</t>
+          <t>구로디지털타워</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>37.505517</v>
+        <v>37.483432</v>
       </c>
       <c r="C540" t="n">
-        <v>126.883953</v>
+        <v>126.89648</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 경인로 610 (신도림동)</t>
+          <t>서울특별시 구로구 디지털로32길 30 (구로동)</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -18260,23 +18260,23 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>구로디지털타워</t>
+          <t>오류동역</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>37.483432</v>
+        <v>37.4962155</v>
       </c>
       <c r="C541" t="n">
-        <v>126.89648</v>
+        <v>126.8448614</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 디지털로32길 30 (구로동)</t>
+          <t>서울특별시 구로구 경인로 216 (오류동)</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -18293,23 +18293,23 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>오류동역</t>
+          <t>구로디지털로</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>37.4962155</v>
+        <v>37.485911</v>
       </c>
       <c r="C542" t="n">
-        <v>126.8448614</v>
+        <v>126.895587</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 경인로 216 (오류동)</t>
+          <t>서울특별시 구로구 디지털로33길 11, 에이스테크노8차 1층 (구로동)</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -18326,23 +18326,23 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>구로디지털로</t>
+          <t>구로에이스</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>37.485911</v>
+        <v>37.48448329</v>
       </c>
       <c r="C543" t="n">
-        <v>126.895587</v>
+        <v>126.8944957</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 디지털로33길 11, 에이스테크노8차 1층 (구로동)</t>
+          <t>서울특별시 구로구 디지털로 285, 에이스트윈타워1차 103호 (구로동)</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
@@ -18359,23 +18359,23 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>구로에이스</t>
+          <t>구로하이엔드</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>37.48448329</v>
+        <v>37.481618</v>
       </c>
       <c r="C544" t="n">
-        <v>126.8944957</v>
+        <v>126.893136</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 디지털로 285, 에이스트윈타워1차 103호 (구로동)</t>
+          <t>서울특별시 구로구 디지털로26길 5, 에이스하이엔드타워1차 103호 (구로동)</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
@@ -18392,23 +18392,23 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>구로하이엔드</t>
+          <t>현대디큐브2F</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>37.481618</v>
+        <v>37.508636</v>
       </c>
       <c r="C545" t="n">
-        <v>126.893136</v>
+        <v>126.889225</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 디지털로26길 5, 에이스하이엔드타워1차 103호 (구로동)</t>
+          <t>서울특별시 구로구 경인로 662 (신도림동)</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
@@ -18425,23 +18425,23 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>현대디큐브2F</t>
+          <t>구로호텔</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>37.508636</v>
+        <v>37.4831293</v>
       </c>
       <c r="C546" t="n">
-        <v>126.889225</v>
+        <v>126.8988591</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 경인로 662 (신도림동)</t>
+          <t>서울특별시 구로구 디지털로32길 72, 구로호텔 1층 (구로동)</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
@@ -18458,23 +18458,23 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>구로호텔</t>
+          <t>현대디큐브B2</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>37.4831293</v>
+        <v>37.508828</v>
       </c>
       <c r="C547" t="n">
-        <v>126.8988591</v>
+        <v>126.889488</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 디지털로32길 72, 구로호텔 1층 (구로동)</t>
+          <t>서울특별시 구로구 경인로 662 (신도림동)</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
@@ -18491,23 +18491,23 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>현대디큐브B2</t>
+          <t>구로고척</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>37.508828</v>
+        <v>37.49706</v>
       </c>
       <c r="C548" t="n">
-        <v>126.889488</v>
+        <v>126.86315</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 경인로 662 (신도림동)</t>
+          <t>서울특별시 구로구 경인로 387 (고척동)</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
@@ -18524,23 +18524,23 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>구로고척</t>
+          <t>구로NC</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>37.49706</v>
+        <v>37.501219</v>
       </c>
       <c r="C549" t="n">
-        <v>126.86315</v>
+        <v>126.882798</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 경인로 387 (고척동)</t>
+          <t>서울특별시 구로구 구로중앙로 152 (구로동) 구로NC</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
@@ -18557,23 +18557,23 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>구로NC</t>
+          <t>구로오류DT</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>37.501219</v>
+        <v>37.4881292318832</v>
       </c>
       <c r="C550" t="n">
-        <v>126.882798</v>
+        <v>126.834491889841</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_generalDT</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 구로중앙로 152 (구로동) 구로NC</t>
+          <t>서울특별시 구로구 서해안로 2233 (오류동)</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
@@ -18590,23 +18590,23 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>구로오류DT</t>
+          <t>구로구청</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>37.4881292318832</v>
+        <v>37.49395067031256</v>
       </c>
       <c r="C551" t="n">
-        <v>126.834491889841</v>
+        <v>126.8867612070772</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 서해안로 2233 (오류동)</t>
+          <t>서울특별시 구로구 가마산로 232 (구로동, 스페스큐브), B101호</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
@@ -18623,23 +18623,23 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>구로구청</t>
+          <t>고척아이파크</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>37.49395067031256</v>
+        <v>37.49930562934076</v>
       </c>
       <c r="C552" t="n">
-        <v>126.8867612070772</v>
+        <v>126.8582208923581</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 가마산로 232 (구로동, 스페스큐브), B101호</t>
+          <t>서울특별시 구로구 경인로43길 49 (고척동, 고척아이파크), 1층 D-101호</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
@@ -18656,23 +18656,23 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>고척아이파크</t>
+          <t>답십리역</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>37.49930562934076</v>
+        <v>37.568466</v>
       </c>
       <c r="C553" t="n">
-        <v>126.8582208923581</v>
+        <v>127.051106</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>서울특별시 구로구 경인로43길 49 (고척동, 고척아이파크), 1층 D-101호</t>
+          <t>서울특별시 동대문구 천호대로 263 (답십리동)</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -18682,30 +18682,30 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>구로구</t>
+          <t>동대문구</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>답십리역</t>
+          <t>경희대삼거리</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>37.568466</v>
+        <v>37.591531</v>
       </c>
       <c r="C554" t="n">
-        <v>127.051106</v>
+        <v>127.052017</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 천호대로 263 (답십리동)</t>
+          <t>서울특별시 동대문구 회기로 141 (회기동)</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
@@ -18722,23 +18722,23 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>경희대삼거리</t>
+          <t>외대정문</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>37.591531</v>
+        <v>37.5953464</v>
       </c>
       <c r="C555" t="n">
-        <v>127.052017</v>
+        <v>127.0590302</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 회기로 141 (회기동)</t>
+          <t>서울특별시 동대문구 이문로 93 (이문동)</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
@@ -18755,23 +18755,23 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>외대정문</t>
+          <t>신설동역</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>37.5953464</v>
+        <v>37.5767228</v>
       </c>
       <c r="C556" t="n">
-        <v>127.0590302</v>
+        <v>127.0255446</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문로 93 (이문동)</t>
+          <t>서울특별시 동대문구 왕산로 19 (신설동)</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
@@ -18788,23 +18788,23 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>신설동역</t>
+          <t>회기역사거리</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>37.5767228</v>
+        <v>37.590784</v>
       </c>
       <c r="C557" t="n">
-        <v>127.0255446</v>
+        <v>127.056098</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 왕산로 19 (신설동)</t>
+          <t>서울특별시 동대문구 이문로 37 (회기동)</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -18821,23 +18821,23 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>회기역사거리</t>
+          <t>외대</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>37.590784</v>
+        <v>37.59575188</v>
       </c>
       <c r="C558" t="n">
-        <v>127.056098</v>
+        <v>127.0614002</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문로 37 (회기동)</t>
+          <t>서울특별시 동대문구 휘경로 12-1 (이문동)</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -18854,23 +18854,23 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>외대</t>
+          <t>장한평역</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>37.59575188</v>
+        <v>37.562337</v>
       </c>
       <c r="C559" t="n">
-        <v>127.0614002</v>
+        <v>127.065511</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 휘경로 12-1 (이문동)</t>
+          <t>서울특별시 동대문구 장한로 10 (장안동)</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -18887,23 +18887,23 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>장한평역</t>
+          <t>경희대</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>37.562337</v>
+        <v>37.5928812</v>
       </c>
       <c r="C560" t="n">
-        <v>127.065511</v>
+        <v>127.0528085</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 장한로 10 (장안동)</t>
+          <t>서울특별시 동대문구 경희대로 16-1 (회기동)</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
@@ -18920,23 +18920,23 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>경희대</t>
+          <t>청량리역롯데캐슬스카이</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>37.5928812</v>
+        <v>37.57920157280363</v>
       </c>
       <c r="C561" t="n">
-        <v>127.0528085</v>
+        <v>127.0454139108689</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 경희대로 16-1 (회기동)</t>
+          <t>서울특별시 동대문구 답십리로 27 (전농동, 청량리역 롯데캐슬 SKY-L65)</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
@@ -18953,23 +18953,23 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>청량리역롯데캐슬스카이</t>
+          <t>경동1960</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>37.57920157280363</v>
+        <v>37.5796141021494</v>
       </c>
       <c r="C562" t="n">
-        <v>127.0454139108689</v>
+        <v>127.038684963773</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 답십리로 27 (전농동, 청량리역 롯데캐슬 SKY-L65)</t>
+          <t>서울특별시 동대문구 고산자로36길 3 (제기동)</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
@@ -18986,23 +18986,23 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>경동1960</t>
+          <t>청량리역사</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>37.5796141021494</v>
+        <v>37.57945</v>
       </c>
       <c r="C563" t="n">
-        <v>127.038684963773</v>
+        <v>127.04785</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 고산자로36길 3 (제기동)</t>
+          <t>서울특별시 동대문구 왕산로 214 (전농동) 청량리역사 Connect Place6층</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
@@ -19019,23 +19019,23 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>청량리역사</t>
+          <t>답십리초교사거리</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>37.57945</v>
+        <v>37.5682540295405</v>
       </c>
       <c r="C564" t="n">
-        <v>127.04785</v>
+        <v>127.057240883237</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 왕산로 214 (전농동) 청량리역사 Connect Place6층</t>
+          <t>서울특별시 동대문구 전농로 38 (답십리동)</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -19052,23 +19052,23 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>답십리초교사거리</t>
+          <t>장안사거리</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>37.5682540295405</v>
+        <v>37.5727209002351</v>
       </c>
       <c r="C565" t="n">
-        <v>127.057240883237</v>
+        <v>127.070092668638</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 전농로 38 (답십리동)</t>
+          <t>서울특별시 동대문구 답십리로 267 (장안동)</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
@@ -19085,23 +19085,23 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>장안사거리</t>
+          <t>서울숲역</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>37.5727209002351</v>
+        <v>37.542075</v>
       </c>
       <c r="C566" t="n">
-        <v>127.070092668638</v>
+        <v>127.044961</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 답십리로 267 (장안동)</t>
+          <t>서울특별시 성동구 왕십리로 50 (성수동1가) 1층</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -19111,30 +19111,30 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>동대문구</t>
+          <t>성동구</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>서울숲역</t>
+          <t>금호역</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>37.542075</v>
+        <v>37.5479939</v>
       </c>
       <c r="C567" t="n">
-        <v>127.044961</v>
+        <v>127.0153343</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 왕십리로 50 (성수동1가) 1층</t>
+          <t>서울특별시 성동구 동호로 99 (금호동4가)</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
@@ -19151,23 +19151,23 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>금호역</t>
+          <t>뚝섬역</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>37.5479939</v>
+        <v>37.546432</v>
       </c>
       <c r="C568" t="n">
-        <v>127.0153343</v>
+        <v>127.049042</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 동호로 99 (금호동4가)</t>
+          <t>서울특별시 성동구 아차산로 42 (성수동1가)</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -19184,23 +19184,23 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>뚝섬역</t>
+          <t>황학사거리</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>37.546432</v>
+        <v>37.567644</v>
       </c>
       <c r="C569" t="n">
-        <v>127.049042</v>
+        <v>127.023697</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 아차산로 42 (성수동1가)</t>
+          <t>서울특별시 성동구 왕십리로 410 (하왕십리동, 센트라스)</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -19217,23 +19217,23 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>황학사거리</t>
+          <t>성수역</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>37.567644</v>
+        <v>37.543193</v>
       </c>
       <c r="C570" t="n">
-        <v>127.023697</v>
+        <v>127.056943</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 왕십리로 410 (하왕십리동, 센트라스)</t>
+          <t>서울특별시 성동구 성수이로 94 (성수동2가)</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -19250,23 +19250,23 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>성수역</t>
+          <t>상왕십리역</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>37.543193</v>
+        <v>37.565169</v>
       </c>
       <c r="C571" t="n">
-        <v>127.056943</v>
+        <v>127.027907</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 성수이로 94 (성수동2가)</t>
+          <t>서울특별시 성동구 왕십리로 382 (하왕십리동)</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
@@ -19283,23 +19283,23 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>상왕십리역</t>
+          <t>왕십리역</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>37.565169</v>
+        <v>37.5627541</v>
       </c>
       <c r="C572" t="n">
-        <v>127.027907</v>
+        <v>127.0339072</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 왕십리로 382 (하왕십리동)</t>
+          <t>서울특별시 성동구 왕십리로 326 (도선동)</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
@@ -19316,23 +19316,23 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>왕십리역</t>
+          <t>한양대</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>37.5627541</v>
+        <v>37.55726984</v>
       </c>
       <c r="C573" t="n">
-        <v>127.0339072</v>
+        <v>127.0421649</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 왕십리로 326 (도선동)</t>
+          <t>서울특별시 성동구 왕십리로 225 (행당동) 1,2층</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
@@ -19349,23 +19349,23 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>한양대</t>
+          <t>엔터식스</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>37.55726984</v>
+        <v>37.56175811</v>
       </c>
       <c r="C574" t="n">
-        <v>127.0421649</v>
+        <v>127.0383328</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 왕십리로 225 (행당동) 1,2층</t>
+          <t>서울특별시 성동구 왕십리광장로 17 (행당동)</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
@@ -19382,23 +19382,23 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>엔터식스</t>
+          <t>신금호역</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>37.56175811</v>
+        <v>37.5549672</v>
       </c>
       <c r="C575" t="n">
-        <v>127.0383328</v>
+        <v>127.0201447</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 왕십리광장로 17 (행당동)</t>
+          <t>서울특별시 성동구 금호로 158-1 (금호동1가) 1~5층 전체</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
@@ -19415,23 +19415,23 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>신금호역</t>
+          <t>왕십리역9번출구</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>37.5549672</v>
+        <v>37.5605427226347</v>
       </c>
       <c r="C576" t="n">
-        <v>127.0201447</v>
+        <v>127.035267332652</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 금호로 158-1 (금호동1가) 1~5층 전체</t>
+          <t>서울특별시 성동구 고산자로 234 (행당동)</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
@@ -19448,23 +19448,23 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>왕십리역9번출구</t>
+          <t>성수</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>37.5605427226347</v>
+        <v>37.5444620830457</v>
       </c>
       <c r="C577" t="n">
-        <v>127.035267332652</v>
+        <v>127.055413311106</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 고산자로 234 (행당동)</t>
+          <t>서울특별시 성동구 아차산로 104 (성수동2가)</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
@@ -19481,23 +19481,23 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>성수</t>
+          <t>옥수</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>37.5444620830457</v>
+        <v>37.5430298</v>
       </c>
       <c r="C578" t="n">
-        <v>127.055413311106</v>
+        <v>127.0133661</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 아차산로 104 (성수동2가)</t>
+          <t>서울특별시 성동구 독서당로 202 (옥수동)</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
@@ -19514,23 +19514,23 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>옥수</t>
+          <t>성수낙낙</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>37.5430298</v>
+        <v>37.547326</v>
       </c>
       <c r="C579" t="n">
-        <v>127.0133661</v>
+        <v>127.066367</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 독서당로 202 (옥수동)</t>
+          <t>서울특별시 성동구 광나루로8길 31 (성수동2가) 성수낙낙 1층 101~107호</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
@@ -19547,23 +19547,23 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>성수낙낙</t>
+          <t>효창공원앞역</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>37.547326</v>
+        <v>37.539305</v>
       </c>
       <c r="C580" t="n">
-        <v>127.066367</v>
+        <v>126.96306</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>서울특별시 성동구 광나루로8길 31 (성수동2가) 성수낙낙 1층 101~107호</t>
+          <t>서울특별시 용산구 백범로 313 (효창동, 용산 롯데캐슬 센터포레)</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
@@ -19573,30 +19573,30 @@
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>성동구</t>
+          <t>용산구</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>효창공원앞역</t>
+          <t>서울역서부</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>37.539305</v>
+        <v>37.555165</v>
       </c>
       <c r="C581" t="n">
-        <v>126.96306</v>
+        <v>126.968446</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 백범로 313 (효창동, 용산 롯데캐슬 센터포레)</t>
+          <t>서울특별시 용산구 만리재로 202 (서계동)</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
@@ -19613,23 +19613,23 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>서울역서부</t>
+          <t>이태원역</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>37.555165</v>
+        <v>37.534273</v>
       </c>
       <c r="C582" t="n">
-        <v>126.968446</v>
+        <v>126.994789</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 만리재로 202 (서계동)</t>
+          <t>서울특별시 용산구 이태원로 188 (이태원동)</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
@@ -19646,23 +19646,23 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>이태원역</t>
+          <t>한강진역R</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>37.534273</v>
+        <v>37.537131</v>
       </c>
       <c r="C583" t="n">
-        <v>126.994789</v>
+        <v>127.00098</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 이태원로 188 (이태원동)</t>
+          <t>서울특별시 용산구 이태원로 252 (한남동)</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
@@ -19679,23 +19679,23 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>한강진역R</t>
+          <t>용산역써밋R</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>37.537131</v>
+        <v>37.527586</v>
       </c>
       <c r="C584" t="n">
-        <v>127.00098</v>
+        <v>126.965401</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 이태원로 252 (한남동)</t>
+          <t>서울특별시 용산구 한강대로 69 (한강로2가, 용산푸르지오써밋)</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
@@ -19712,23 +19712,23 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>용산역써밋R</t>
+          <t>이촌</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>37.527586</v>
+        <v>37.518605</v>
       </c>
       <c r="C585" t="n">
-        <v>126.965401</v>
+        <v>126.977271</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로 69 (한강로2가, 용산푸르지오써밋)</t>
+          <t>서울특별시 용산구 이촌로 276 (이촌동)</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
@@ -19745,23 +19745,23 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>이촌</t>
+          <t>신용산역</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>37.518605</v>
+        <v>37.528702</v>
       </c>
       <c r="C586" t="n">
-        <v>126.977271</v>
+        <v>126.966757</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 이촌로 276 (이촌동)</t>
+          <t>서울특별시 용산구 한강대로 95 (한강로2가, 래미안용산)</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
@@ -19778,23 +19778,23 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>신용산역</t>
+          <t>용산파크타워</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>37.528702</v>
+        <v>37.523818</v>
       </c>
       <c r="C587" t="n">
-        <v>126.966757</v>
+        <v>126.970389</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로 95 (한강로2가, 래미안용산)</t>
+          <t>서울특별시 용산구 서빙고로 67 (용산동5가, 파크타워)</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
@@ -19811,23 +19811,23 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>용산파크타워</t>
+          <t>남영동</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>37.523818</v>
+        <v>37.542831</v>
       </c>
       <c r="C588" t="n">
-        <v>126.970389</v>
+        <v>126.972242</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 서빙고로 67 (용산동5가, 파크타워)</t>
+          <t>서울특별시 용산구 한강대로 275 (갈월동)</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
@@ -19844,23 +19844,23 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>남영동</t>
+          <t>한남동R</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>37.542831</v>
+        <v>37.53485</v>
       </c>
       <c r="C589" t="n">
-        <v>126.972242</v>
+        <v>127.010919</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_reserve</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로 275 (갈월동)</t>
+          <t>서울특별시 용산구 독서당로 94 (한남동)</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
@@ -19877,23 +19877,23 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>한남동R</t>
+          <t>서울타워</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>37.53485</v>
+        <v>37.551102</v>
       </c>
       <c r="C590" t="n">
-        <v>127.010919</v>
+        <v>126.988317</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 독서당로 94 (한남동)</t>
+          <t>서울특별시 용산구 남산공원길 105 (용산동2가) YTN서울타워 1층</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
@@ -19910,23 +19910,23 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>서울타워</t>
+          <t>서울역동자동</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>37.551102</v>
+        <v>37.551752</v>
       </c>
       <c r="C591" t="n">
-        <v>126.988317</v>
+        <v>126.972694</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 남산공원길 105 (용산동2가) YTN서울타워 1층</t>
+          <t>서울특별시 용산구 한강대로 372 (동자동)</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
@@ -19943,23 +19943,23 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>서울역동자동</t>
+          <t>순천향입구</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>37.551752</v>
+        <v>37.533394</v>
       </c>
       <c r="C592" t="n">
-        <v>126.972694</v>
+        <v>127.00563</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로 372 (동자동)</t>
+          <t>서울특별시 용산구 대사관로 67 (한남동)</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
@@ -19976,23 +19976,23 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>순천향입구</t>
+          <t>숙대</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>37.533394</v>
+        <v>37.54460479</v>
       </c>
       <c r="C593" t="n">
-        <v>127.00563</v>
+        <v>126.9672252</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 대사관로 67 (한남동)</t>
+          <t>서울특별시 용산구 청파로47길 57 (청파동3가)</t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
@@ -20009,23 +20009,23 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>숙대</t>
+          <t>동빙고</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>37.54460479</v>
+        <v>37.5289857</v>
       </c>
       <c r="C594" t="n">
-        <v>126.9672252</v>
+        <v>126.991782</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 청파로47길 57 (청파동3가)</t>
+          <t>서울특별시 용산구 장문로 12 (동빙고동)</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
@@ -20042,23 +20042,23 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>동빙고</t>
+          <t>숙대입구역</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>37.5289857</v>
+        <v>37.544118</v>
       </c>
       <c r="C595" t="n">
-        <v>126.991782</v>
+        <v>126.971891</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 장문로 12 (동빙고동)</t>
+          <t>서울특별시 용산구 한강대로 291 (갈월동)</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
@@ -20075,23 +20075,23 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>숙대입구역</t>
+          <t>용산아이파크몰</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>37.544118</v>
+        <v>37.5288539</v>
       </c>
       <c r="C596" t="n">
-        <v>126.971891</v>
+        <v>126.9640446999999</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로 291 (갈월동)</t>
+          <t>서울특별시 용산구 한강대로23길 55</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
@@ -20108,23 +20108,23 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>용산아이파크몰</t>
+          <t>동부이촌동</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>37.5288539</v>
+        <v>37.52111</v>
       </c>
       <c r="C597" t="n">
-        <v>126.9640446999999</v>
+        <v>126.96905</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로23길 55</t>
+          <t>서울특별시 용산구 이촌로 198 (이촌동)</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
@@ -20141,23 +20141,23 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>동부이촌동</t>
+          <t>숙명여대정문</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>37.52111</v>
+        <v>37.54474797</v>
       </c>
       <c r="C598" t="n">
-        <v>126.96905</v>
+        <v>126.96484196</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 이촌로 198 (이촌동)</t>
+          <t>서울특별시 용산구 청파로47길 100 (청파동2가) 프라임관B1F(로비층)</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
@@ -20174,23 +20174,23 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>숙명여대정문</t>
+          <t>용산해링턴스퀘어</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>37.54474797</v>
+        <v>37.5258562</v>
       </c>
       <c r="C599" t="n">
-        <v>126.96484196</v>
+        <v>126.9676442</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 청파로47길 100 (청파동2가) 프라임관B1F(로비층)</t>
+          <t>서울특별시 용산구 서빙고로 17 (한강로3가)</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
@@ -20207,23 +20207,23 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>용산해링턴스퀘어</t>
+          <t>경리단길</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>37.5258562</v>
+        <v>37.53854</v>
       </c>
       <c r="C600" t="n">
-        <v>126.9676442</v>
+        <v>126.98737</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 서빙고로 17 (한강로3가)</t>
+          <t>서울특별시 용산구 회나무로 3 (이태원동)</t>
         </is>
       </c>
       <c r="F600" t="inlineStr">
@@ -20240,23 +20240,23 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>경리단길</t>
+          <t>서울역사</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>37.53854</v>
+        <v>37.55415699928705</v>
       </c>
       <c r="C601" t="n">
-        <v>126.98737</v>
+        <v>126.9717936129285</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 회나무로 3 (이태원동)</t>
+          <t>서울특별시 용산구 한강대로 405 (동자동) 신-101호</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
@@ -20273,23 +20273,23 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>서울역사</t>
+          <t>용산리첸시아</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>37.55415699928705</v>
+        <v>37.538571</v>
       </c>
       <c r="C602" t="n">
-        <v>126.9717936129285</v>
+        <v>126.967409</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 한강대로 405 (동자동) 신-101호</t>
+          <t>서울특별시 용산구 백범로 341 (원효로1가, 리첸시아 용산)</t>
         </is>
       </c>
       <c r="F602" t="inlineStr">
@@ -20306,23 +20306,23 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>용산리첸시아</t>
+          <t>용산전자랜드</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>37.538571</v>
+        <v>37.53286105987034</v>
       </c>
       <c r="C603" t="n">
-        <v>126.967409</v>
+        <v>126.9610009113248</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 백범로 341 (원효로1가, 리첸시아 용산)</t>
+          <t>서울특별시 용산구 청파로 74 (한강로3가)</t>
         </is>
       </c>
       <c r="F603" t="inlineStr">
@@ -20339,23 +20339,23 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>용산전자랜드</t>
+          <t>상봉</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>37.53286105987034</v>
+        <v>37.597842</v>
       </c>
       <c r="C604" t="n">
-        <v>126.9610009113248</v>
+        <v>127.092509</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>서울특별시 용산구 청파로 74 (한강로3가)</t>
+          <t>서울특별시 중랑구 상봉로 131 (상봉동, 상봉 듀오트리스 주상복합)</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
@@ -20365,30 +20365,30 @@
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>용산구</t>
+          <t>중랑구</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>상봉</t>
+          <t>중랑역</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>37.597842</v>
+        <v>37.5930326</v>
       </c>
       <c r="C605" t="n">
-        <v>127.092509</v>
+        <v>127.0747358</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 상봉로 131 (상봉동, 상봉 듀오트리스 주상복합)</t>
+          <t>서울특별시 중랑구 망우로30길 3 (상봉동)</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
@@ -20405,23 +20405,23 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>중랑역</t>
+          <t>중랑구청</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>37.5930326</v>
+        <v>37.60538908</v>
       </c>
       <c r="C606" t="n">
-        <v>127.0747358</v>
+        <v>127.0957558</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 망우로30길 3 (상봉동)</t>
+          <t>서울특별시 중랑구 신내로 72</t>
         </is>
       </c>
       <c r="F606" t="inlineStr">
@@ -20438,23 +20438,23 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>중랑구청</t>
+          <t>사가정역</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>37.60538908</v>
+        <v>37.579594</v>
       </c>
       <c r="C607" t="n">
-        <v>127.0957558</v>
+        <v>127.087966</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 신내로 72</t>
+          <t>서울특별시 중랑구 면목로 310</t>
         </is>
       </c>
       <c r="F607" t="inlineStr">
@@ -20471,23 +20471,23 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>사가정역</t>
+          <t>상봉역</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>37.579594</v>
+        <v>37.59689</v>
       </c>
       <c r="C608" t="n">
-        <v>127.087966</v>
+        <v>127.08647</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 면목로 310</t>
+          <t>서울특별시 중랑구 망우로 307 (상봉동)</t>
         </is>
       </c>
       <c r="F608" t="inlineStr">
@@ -20504,23 +20504,23 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>상봉역</t>
+          <t>묵동</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>37.59689</v>
+        <v>37.615368</v>
       </c>
       <c r="C609" t="n">
-        <v>127.08647</v>
+        <v>127.076633</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 망우로 307 (상봉동)</t>
+          <t>서울특별시 중랑구 동일로 952 (묵동, 로프트원 태릉입구역) 1층</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
@@ -20537,23 +20537,23 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>묵동</t>
+          <t>양원역</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>37.615368</v>
+        <v>37.6066536267232</v>
       </c>
       <c r="C610" t="n">
-        <v>127.076633</v>
+        <v>127.106359790053</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 동일로 952 (묵동, 로프트원 태릉입구역) 1층</t>
+          <t>서울특별시 중랑구 양원역로10길 3 (망우동)</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
@@ -20570,23 +20570,23 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>양원역</t>
+          <t>중화역</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>37.6066536267232</v>
+        <v>37.60170912407773</v>
       </c>
       <c r="C611" t="n">
-        <v>127.106359790053</v>
+        <v>127.0784113643204</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>리저브 매장 2번</t>
+          <t>pin_general</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>서울특별시 중랑구 양원역로10길 3 (망우동)</t>
+          <t>서울특별시 중랑구 봉화산로 35 1층</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
@@ -20595,39 +20595,6 @@
         </is>
       </c>
       <c r="G611" t="inlineStr">
-        <is>
-          <t>중랑구</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>중화역</t>
-        </is>
-      </c>
-      <c r="B612" t="n">
-        <v>37.60170912407773</v>
-      </c>
-      <c r="C612" t="n">
-        <v>127.0784113643204</v>
-      </c>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>리저브 매장 2번</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr">
-        <is>
-          <t>서울특별시 중랑구 봉화산로 35 1층</t>
-        </is>
-      </c>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>1522-3232</t>
-        </is>
-      </c>
-      <c r="G612" t="inlineStr">
         <is>
           <t>중랑구</t>
         </is>
